--- a/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Start1.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Start1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\FUMI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGSProject\TGSProject\Assets\Resources\MessageData\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B0D5E-25C9-4AD3-9CC6-05A79E03B465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBEC57-8347-42BE-A1CA-6526BCA92C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この蛍灯を肌身離さず持っていなければ、すぐさま襲われるのだろう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>光を必要としない代わりに、やつらは通りかかる獲物を捕食して養分とする。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,7 +257,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その虫もある鳥の好物だから、灯りをしっかり…</t>
+    <t>この蛍灯を肌身離さず持っていなければ、すぐさま襲われるだろう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとつしかないから、二人で分けて使うんだ。よく聞いてくれ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1でしばらく別行動をとることができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ俺は動けないから、別れた場所にいるしかない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>俺の視界が届く範囲なら君に指示が出せる。だから、あまり離れるな。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わ、わかりました…！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意気込みすぎて転ぶなよ？俺に迷惑がかかる。</t>
+  </si>
+  <si>
+    <t>この宮殿は恐らく蜘蛛の巣窟になっている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現れたら、△で俺が小石を投げて駆逐する。</t>
+  </si>
+  <si>
+    <t>持てる数には限界があるが、石を見つけたら積極的に拾っていくつもりだ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっぺんに話しても覚えられないだろう、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また何かあったら話す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今はとりあえず進んでくれ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、はいっ！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -272,20 +318,27 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;aaa&quot;;&quot;bbb&quot;;&quot;ccc&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="新細明體"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -385,11 +438,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -402,9 +470,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -619,8 +701,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G18" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G30" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G30" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB0E5D9F-2D08-4C72-8455-42174E525949}" name="id" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A47C076A-D9B0-4632-9894-3897E0489CD3}" name="name" dataDxfId="5"/>
@@ -897,20 +979,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="57.75" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="57.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -982,7 +1064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="36">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -990,7 +1072,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>32</v>
@@ -1166,7 +1248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1189,7 +1271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="36">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1197,7 +1279,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -1212,7 +1294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1220,7 +1302,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>7</v>
@@ -1243,7 +1325,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -1266,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>32</v>
@@ -1289,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
@@ -1323,29 +1405,305 @@
       <c r="F18" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>18</v>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.8">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
       <formula1>"Left,Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19 E2:E18" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 E2:E30" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
       <formula1>"S,M,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F19 F21 F23 F25 F27 F29" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
       <formula1>"Left, Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
       <formula1>"RED, GREEN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18 F20 F22 F24 F26 F28 F30" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1365,7 +1723,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1420,6 +1778,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BAE7EB4212F5614DAFCEB6FEF87A9307" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12250d17ef9aef68ca08ed35e135200f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="06e34fca-c037-4f19-8349-14b84dea7b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba4eafe8c0cf322686b87aede248738b" ns2:_="">
     <xsd:import namespace="06e34fca-c037-4f19-8349-14b84dea7b7d"/>
@@ -1583,7 +1947,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1592,13 +1956,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0C6F35-3ACF-483F-9DCD-D079A65F37AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1616,19 +1983,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Start1.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Start1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGSProject\TGSProject\Assets\Resources\MessageData\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\FUMI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBEC57-8347-42BE-A1CA-6526BCA92C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B0D5E-25C9-4AD3-9CC6-05A79E03B465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -237,6 +237,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>この蛍灯を肌身離さず持っていなければ、すぐさま襲われるのだろう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>光を必要としない代わりに、やつらは通りかかる獲物を捕食して養分とする。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,57 +261,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この蛍灯を肌身離さず持っていなければ、すぐさま襲われるだろう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひとつしかないから、二人で分けて使うんだ。よく聞いてくれ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R1でしばらく別行動をとることができる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ただ俺は動けないから、別れた場所にいるしかない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>俺の視界が届く範囲なら君に指示が出せる。だから、あまり離れるな。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わ、わかりました…！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>意気込みすぎて転ぶなよ？俺に迷惑がかかる。</t>
-  </si>
-  <si>
-    <t>この宮殿は恐らく蜘蛛の巣窟になっている。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現れたら、△で俺が小石を投げて駆逐する。</t>
-  </si>
-  <si>
-    <t>持てる数には限界があるが、石を見つけたら積極的に拾っていくつもりだ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いっぺんに話しても覚えられないだろう、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また何かあったら話す。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今はとりあえず進んでくれ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>は、はいっ！</t>
+    <t>その虫もある鳥の好物だから、灯りをしっかり…</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -318,27 +272,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;aaa&quot;;&quot;bbb&quot;;&quot;ccc&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -438,26 +385,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -470,23 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -701,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G30" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G30" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G18" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB0E5D9F-2D08-4C72-8455-42174E525949}" name="id" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A47C076A-D9B0-4632-9894-3897E0489CD3}" name="name" dataDxfId="5"/>
@@ -979,20 +897,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.59765625" customWidth="1"/>
-    <col min="3" max="3" width="57.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1064,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1072,7 +990,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>32</v>
@@ -1248,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1271,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1279,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>32</v>
@@ -1294,7 +1212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1302,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>7</v>
@@ -1325,7 +1243,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -1348,7 +1266,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>32</v>
@@ -1371,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
@@ -1405,305 +1323,29 @@
       <c r="F18" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="31.8">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
       <formula1>"Left,Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 E2:E30" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19 E2:E18" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
       <formula1>"S,M,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F19 F21 F23 F25 F27 F29" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
       <formula1>"Left, Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
       <formula1>"RED, GREEN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18 F20 F22 F24 F26 F28 F30" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1723,7 +1365,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1778,12 +1420,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BAE7EB4212F5614DAFCEB6FEF87A9307" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12250d17ef9aef68ca08ed35e135200f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="06e34fca-c037-4f19-8349-14b84dea7b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba4eafe8c0cf322686b87aede248738b" ns2:_="">
     <xsd:import namespace="06e34fca-c037-4f19-8349-14b84dea7b7d"/>
@@ -1947,7 +1583,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1956,16 +1592,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0C6F35-3ACF-483F-9DCD-D079A65F37AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1983,10 +1616,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>